--- a/3.6_RiseTime.xlsx
+++ b/3.6_RiseTime.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27495" windowHeight="12405" activeTab="1"/>
+    <workbookView windowWidth="27495" windowHeight="12465" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="5">
   <si>
     <t>Rise Time (μs)</t>
   </si>
@@ -37,10 +38,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -82,14 +83,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -99,15 +92,30 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -121,27 +129,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -161,8 +167,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -175,15 +189,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -197,17 +204,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -220,13 +221,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -238,169 +401,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -411,6 +412,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -425,15 +435,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -516,142 +517,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -661,7 +662,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -669,9 +670,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -993,17 +991,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:L12"/>
+      <selection activeCell="C15" sqref="C15:L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15"/>
   <cols>
     <col min="4" max="4" width="12.5"/>
-    <col min="5" max="6" width="11.4"/>
-    <col min="7" max="7" width="10.3"/>
+    <col min="5" max="5" width="11.4"/>
+    <col min="6" max="6" width="12.5"/>
+    <col min="7" max="7" width="11.4"/>
     <col min="9" max="12" width="12.5"/>
   </cols>
   <sheetData>
@@ -1016,7 +1015,7 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
+      <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1393,6 +1392,284 @@
       </c>
       <c r="L12">
         <v>8.0375712</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <v>15.6766464</v>
+      </c>
+      <c r="E15">
+        <v>40.1354016</v>
+      </c>
+      <c r="F15">
+        <v>9.1032768</v>
+      </c>
+      <c r="G15">
+        <v>7.9486272</v>
+      </c>
+      <c r="I15">
+        <v>16.1876112</v>
+      </c>
+      <c r="J15">
+        <v>42.058432</v>
+      </c>
+      <c r="K15">
+        <v>9.1032768</v>
+      </c>
+      <c r="L15">
+        <v>7.9486272</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>8</v>
+      </c>
+      <c r="D16">
+        <v>16.1876112</v>
+      </c>
+      <c r="E16">
+        <v>42.0584832</v>
+      </c>
+      <c r="F16">
+        <v>9.249912</v>
+      </c>
+      <c r="G16">
+        <v>10.6157088</v>
+      </c>
+      <c r="I16">
+        <v>16.1876112</v>
+      </c>
+      <c r="J16">
+        <v>42.0584832</v>
+      </c>
+      <c r="K16">
+        <v>9.249912</v>
+      </c>
+      <c r="L16">
+        <v>10.6157088</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>12</v>
+      </c>
+      <c r="D17">
+        <v>16.2970464</v>
+      </c>
+      <c r="E17">
+        <v>42.6635616</v>
+      </c>
+      <c r="F17">
+        <v>9.249912</v>
+      </c>
+      <c r="G17">
+        <v>10.6157088</v>
+      </c>
+      <c r="I17">
+        <v>16.1876112</v>
+      </c>
+      <c r="J17">
+        <v>42.0584832</v>
+      </c>
+      <c r="K17">
+        <v>9.249912</v>
+      </c>
+      <c r="L17">
+        <v>10.6157088</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="C18">
+        <v>16</v>
+      </c>
+      <c r="D18">
+        <v>16.4064192</v>
+      </c>
+      <c r="E18">
+        <v>43.2595536</v>
+      </c>
+      <c r="F18">
+        <v>9.3283824</v>
+      </c>
+      <c r="G18">
+        <v>11.866016</v>
+      </c>
+      <c r="I18">
+        <v>16.40641891</v>
+      </c>
+      <c r="J18">
+        <v>43.25955412</v>
+      </c>
+      <c r="K18">
+        <v>9.3283824</v>
+      </c>
+      <c r="L18">
+        <v>11.8766016</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>6</v>
+      </c>
+      <c r="C19">
+        <v>20</v>
+      </c>
+      <c r="D19">
+        <v>16.5157392</v>
+      </c>
+      <c r="E19">
+        <v>43.8468912</v>
+      </c>
+      <c r="F19">
+        <v>9.5132112</v>
+      </c>
+      <c r="G19">
+        <v>13.9003632</v>
+      </c>
+      <c r="I19">
+        <v>16.5157392</v>
+      </c>
+      <c r="J19">
+        <v>43.8468912</v>
+      </c>
+      <c r="K19">
+        <v>9.5132112</v>
+      </c>
+      <c r="L19">
+        <v>13.9003632</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>7</v>
+      </c>
+      <c r="C20">
+        <v>24</v>
+      </c>
+      <c r="D20">
+        <v>119.6415024</v>
+      </c>
+      <c r="E20">
+        <v>96.7132176</v>
+      </c>
+      <c r="F20">
+        <v>56.8374528</v>
+      </c>
+      <c r="G20">
+        <v>63.7478352</v>
+      </c>
+      <c r="I20">
+        <v>65.4253584</v>
+      </c>
+      <c r="J20">
+        <v>67.5219456</v>
+      </c>
+      <c r="K20">
+        <v>94.47096</v>
+      </c>
+      <c r="L20">
+        <v>80.1668496</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>8</v>
+      </c>
+      <c r="C21">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>9</v>
+      </c>
+      <c r="C22">
+        <v>32</v>
+      </c>
+      <c r="F22">
+        <v>374.7060576</v>
+      </c>
+      <c r="G22">
+        <v>0.1025184</v>
+      </c>
+      <c r="K22">
+        <v>374.4476208</v>
+      </c>
+      <c r="L22">
+        <v>0.4156368</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>10</v>
+      </c>
+      <c r="C23">
+        <v>36</v>
+      </c>
+      <c r="F23">
+        <v>374.7328944</v>
+      </c>
+      <c r="G23">
+        <v>0.362616</v>
+      </c>
+      <c r="K23">
+        <v>374.5464672</v>
+      </c>
+      <c r="L23">
+        <v>0.5054544</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>11</v>
+      </c>
+      <c r="C24">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1406,8 +1683,8 @@
   <sheetPr/>
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15"/>
@@ -1740,4 +2017,276 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="12.5"/>
+    <col min="3" max="3" width="11.4"/>
+    <col min="4" max="4" width="12.5"/>
+    <col min="5" max="5" width="11.4"/>
+    <col min="6" max="9" width="12.5"/>
+    <col min="10" max="10" width="11.4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>15.6766464</v>
+      </c>
+      <c r="C2">
+        <v>40.1354016</v>
+      </c>
+      <c r="D2">
+        <v>9.1032768</v>
+      </c>
+      <c r="E2">
+        <v>7.9486272</v>
+      </c>
+      <c r="F2">
+        <v>16.1876112</v>
+      </c>
+      <c r="G2">
+        <v>42.058432</v>
+      </c>
+      <c r="H2">
+        <v>9.1032768</v>
+      </c>
+      <c r="I2">
+        <v>7.9486272</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>16.1876112</v>
+      </c>
+      <c r="C3">
+        <v>42.0584832</v>
+      </c>
+      <c r="D3">
+        <v>9.249912</v>
+      </c>
+      <c r="E3">
+        <v>10.6157088</v>
+      </c>
+      <c r="F3">
+        <v>16.1876112</v>
+      </c>
+      <c r="G3">
+        <v>42.0584832</v>
+      </c>
+      <c r="H3">
+        <v>9.249912</v>
+      </c>
+      <c r="I3">
+        <v>10.6157088</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>16.2970464</v>
+      </c>
+      <c r="C4">
+        <v>42.6635616</v>
+      </c>
+      <c r="D4">
+        <v>9.249912</v>
+      </c>
+      <c r="E4">
+        <v>10.6157088</v>
+      </c>
+      <c r="F4">
+        <v>16.1876112</v>
+      </c>
+      <c r="G4">
+        <v>42.0584832</v>
+      </c>
+      <c r="H4">
+        <v>9.249912</v>
+      </c>
+      <c r="I4">
+        <v>10.6157088</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
+        <v>16</v>
+      </c>
+      <c r="B5">
+        <v>16.4064192</v>
+      </c>
+      <c r="C5">
+        <v>43.2595536</v>
+      </c>
+      <c r="D5">
+        <v>9.3283824</v>
+      </c>
+      <c r="E5">
+        <v>11.866016</v>
+      </c>
+      <c r="F5">
+        <v>16.40641891</v>
+      </c>
+      <c r="G5">
+        <v>43.25955412</v>
+      </c>
+      <c r="H5">
+        <v>9.3283824</v>
+      </c>
+      <c r="I5">
+        <v>11.8766016</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
+        <v>20</v>
+      </c>
+      <c r="B6">
+        <v>16.5157392</v>
+      </c>
+      <c r="C6">
+        <v>43.8468912</v>
+      </c>
+      <c r="D6">
+        <v>9.5132112</v>
+      </c>
+      <c r="E6">
+        <v>13.9003632</v>
+      </c>
+      <c r="F6">
+        <v>16.5157392</v>
+      </c>
+      <c r="G6">
+        <v>43.8468912</v>
+      </c>
+      <c r="H6">
+        <v>9.5132112</v>
+      </c>
+      <c r="I6">
+        <v>13.9003632</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
+        <v>24</v>
+      </c>
+      <c r="B7">
+        <v>119.6415024</v>
+      </c>
+      <c r="C7">
+        <v>96.7132176</v>
+      </c>
+      <c r="D7">
+        <v>56.8374528</v>
+      </c>
+      <c r="E7">
+        <v>63.7478352</v>
+      </c>
+      <c r="F7">
+        <v>65.4253584</v>
+      </c>
+      <c r="G7">
+        <v>67.5219456</v>
+      </c>
+      <c r="H7">
+        <v>94.47096</v>
+      </c>
+      <c r="I7">
+        <v>80.1668496</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9">
+        <v>32</v>
+      </c>
+      <c r="D9">
+        <v>374.7060576</v>
+      </c>
+      <c r="E9">
+        <v>0.1025184</v>
+      </c>
+      <c r="H9">
+        <v>374.4476208</v>
+      </c>
+      <c r="I9">
+        <v>0.4156368</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10">
+        <v>36</v>
+      </c>
+      <c r="D10">
+        <v>374.7328944</v>
+      </c>
+      <c r="E10">
+        <v>0.362616</v>
+      </c>
+      <c r="H10">
+        <v>374.5464672</v>
+      </c>
+      <c r="I10">
+        <v>0.5054544</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>